--- a/biology/Mycologie/Monographella_nivalis/Monographella_nivalis.xlsx
+++ b/biology/Mycologie/Monographella_nivalis/Monographella_nivalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monographella nivalis est une espèce de champignons ascomycètes de l'ordre des Xylariales. Elle est responsable d'une pourriture de la végétation, appelée « moisissure des neiges », qui affecte celle-ci quand elle reste trop longtemps recouverte d'une couche de neige. Monographella nivalis var. nivalis ne fait pas partie du genre Fusarium, mais ce champignon provoque une maladie évoquant la fusariose sur les épis de blé, raison pour laquelle il est souvent confondu avec les Fusarium.
 </t>
@@ -513,21 +525,60 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Synonymes homotypiques : 
-Calonectria nivalis Schaffnit, 1913 (basionyme)[1]
-Griphosphaeria nivalis (Schaffnit) E. Müll. &amp; Arx, 1955[1]
-Micronectriella nivalis (Schaffnit) C. Booth, 1971[1]
-Monographella nivalis var. nivalis (autonyme)[1]
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Synonymes homotypiques : 
+Calonectria nivalis Schaffnit, 1913 (basionyme)
+Griphosphaeria nivalis (Schaffnit) E. Müll. &amp; Arx, 1955
+Micronectriella nivalis (Schaffnit) C. Booth, 1971
+Monographella nivalis var. nivalis (autonyme)
 Synonyme hétérotypique : 
-Nectria graminicola Berk. &amp; Broome, 1859[1]
+Nectria graminicola Berk. &amp; Broome, 1859
 Autres synonymes : 
-Fusarium nivale Ces. ex Berl. &amp; Voglino 1886[2]
-Microdochium nivale (Fr.) Samuels &amp; I.C. Hallett 1983[3]
-Liste des variétés
-Selon NCBI  (27 octobre 2013)[4] :
+Fusarium nivale Ces. ex Berl. &amp; Voglino 1886
+Microdochium nivale (Fr.) Samuels &amp; I.C. Hallett 1983</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Monographella_nivalis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Monographella_nivalis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (27 octobre 2013) :
 variété Monographella nivalis var. nivalis
-Selon MycoBank                                            (27 octobre 2013)[1] : 
+Selon MycoBank                                            (27 octobre 2013) : 
 variété Monographella nivalis var. nivalis
 variété Monographella nivalis var. neglecta</t>
         </is>
